--- a/interfaceTest/testFile/Power_activities.xlsx
+++ b/interfaceTest/testFile/Power_activities.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>user_name</t>
+  </si>
   <si>
     <t>user_mobile</t>
   </si>
@@ -22,7 +25,13 @@
     <t>user_token</t>
   </si>
   <si>
+    <t>伟大的航海后半段丶</t>
+  </si>
+  <si>
     <t>51321b4f-c0bb-4474-8981-fbed65a01fb6</t>
+  </si>
+  <si>
+    <t>邓颜灿</t>
   </si>
 </sst>
 </file>
@@ -51,6 +60,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -150,29 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -197,6 +206,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -312,36 +351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +397,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -402,15 +435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,21 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -496,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,161 +1002,171 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>15721484677</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>15721484677</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
+    <row r="4" spans="2:3">
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/interfaceTest/testFile/Power_activities.xlsx
+++ b/interfaceTest/testFile/Power_activities.xlsx
@@ -39,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -647,11 +647,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1008,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1030,7 +1033,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>15721484677</v>
       </c>
       <c r="C2" s="1" t="s">

--- a/interfaceTest/testFile/Power_activities.xlsx
+++ b/interfaceTest/testFile/Power_activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="activities" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>user_name</t>
   </si>
@@ -24,25 +24,16 @@
   <si>
     <t>user_token</t>
   </si>
-  <si>
-    <t>伟大的航海后半段丶</t>
-  </si>
-  <si>
-    <t>51321b4f-c0bb-4474-8981-fbed65a01fb6</t>
-  </si>
-  <si>
-    <t>邓颜灿</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,6 +45,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -63,6 +77,88 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,114 +172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,49 +197,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,18 +359,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,103 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,26 +406,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,35 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,10 +496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +508,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,7 +999,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1029,27 +1020,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>15721484677</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15721484677</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1"/>
